--- a/Liquidity_Override.xlsx
+++ b/Liquidity_Override.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004E6F7-A816-4D12-9EB4-D113AAE36254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C82CCE8-FCC8-462C-B52D-84FA27E4E8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37740" yWindow="165" windowWidth="17595" windowHeight="13890" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="8955" yWindow="975" windowWidth="17910" windowHeight="14265" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>L0</t>
+  </si>
+  <si>
+    <t>6688 HK Equity</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,12 +447,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C914DDD97F866468ED577DEA929E4D9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56ec5fe376fac40fd0cb1cab234de181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d30129-465f-4aac-93a2-84e7515519f4" xmlns:ns4="ee224342-1562-4dba-aa18-deadffb6d682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2e793717d1037e45edf9a57a995cfb4" ns3:_="" ns4:_="">
     <xsd:import namespace="43d30129-465f-4aac-93a2-84e7515519f4"/>
@@ -666,22 +695,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
+    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5803B407-0530-4D1C-905C-5E82E5FA2D03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -698,29 +737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
-    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Liquidity_Override.xlsx
+++ b/Liquidity_Override.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C82CCE8-FCC8-462C-B52D-84FA27E4E8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC01B1A-2539-408A-887F-3C016E6477DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="975" windowWidth="17910" windowHeight="14265" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="38760" yWindow="5040" windowWidth="17970" windowHeight="12135" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>6688 HK Equity</t>
+  </si>
+  <si>
+    <t>6618 HK Equity</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +461,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -473,12 +487,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C914DDD97F866468ED577DEA929E4D9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56ec5fe376fac40fd0cb1cab234de181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d30129-465f-4aac-93a2-84e7515519f4" xmlns:ns4="ee224342-1562-4dba-aa18-deadffb6d682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2e793717d1037e45edf9a57a995cfb4" ns3:_="" ns4:_="">
     <xsd:import namespace="43d30129-465f-4aac-93a2-84e7515519f4"/>
@@ -695,6 +703,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
   <ds:schemaRefs>
@@ -704,23 +718,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
-    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5803B407-0530-4D1C-905C-5E82E5FA2D03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -737,4 +734,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
+    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Liquidity_Override.xlsx
+++ b/Liquidity_Override.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC01B1A-2539-408A-887F-3C016E6477DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3E7A7-F8F9-4943-B21D-0B37DFD7FCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="5040" windowWidth="17970" windowHeight="12135" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="8040" yWindow="1965" windowWidth="15165" windowHeight="12510" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>6618 HK Equity</t>
+  </si>
+  <si>
+    <t>9626 HK Equity</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,18 +475,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,15 +715,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
+    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -737,18 +760,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
-    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liquidity_Override.xlsx
+++ b/Liquidity_Override.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3E7A7-F8F9-4943-B21D-0B37DFD7FCBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F1D09-68CB-48E2-9ADB-030F7A5E7A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1965" windowWidth="15165" windowHeight="12510" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="6192" yWindow="1260" windowWidth="18588" windowHeight="11316" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>9626 HK Equity</t>
+  </si>
+  <si>
+    <t>YMM US Equity</t>
   </si>
 </sst>
 </file>
@@ -418,20 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44012</v>
       </c>
@@ -453,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44134</v>
       </c>
@@ -464,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44196</v>
       </c>
@@ -475,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44286</v>
       </c>
@@ -483,6 +486,17 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -492,12 +506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C914DDD97F866468ED577DEA929E4D9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56ec5fe376fac40fd0cb1cab234de181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d30129-465f-4aac-93a2-84e7515519f4" xmlns:ns4="ee224342-1562-4dba-aa18-deadffb6d682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2e793717d1037e45edf9a57a995cfb4" ns3:_="" ns4:_="">
     <xsd:import namespace="43d30129-465f-4aac-93a2-84e7515519f4"/>
@@ -714,6 +722,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -724,23 +738,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
-    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5803B407-0530-4D1C-905C-5E82E5FA2D03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -759,6 +756,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
+    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
   <ds:schemaRefs>
